--- a/nodes_source_analyses/energy/industry/industry_chp_wood_pellets.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_chp_wood_pellets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/industry/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4385BE11-072D-7448-BBAD-E86D87552954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04E64C-8AFC-9748-BF23-276CB44AA5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -174,12 +174,6 @@
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -515,6 +506,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1328,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1629,6 +1626,10 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="265">
@@ -2490,12 +2491,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="29"/>
+    <col min="1" max="1" width="3.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="35" customFormat="1">
@@ -2521,16 +2522,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2555,7 +2556,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="13"/>
       <c r="B9" s="107" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="108"/>
     </row>
@@ -2567,31 +2568,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" s="109" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="109"/>
       <c r="C12" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="109"/>
       <c r="C13" s="112" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13"/>
       <c r="B14" s="109"/>
       <c r="C14" s="110" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2602,58 +2603,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="13"/>
       <c r="B16" s="109" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="113" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13"/>
       <c r="B17" s="109"/>
       <c r="C17" s="114" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13"/>
       <c r="B18" s="109"/>
       <c r="C18" s="115" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13"/>
       <c r="B19" s="109"/>
       <c r="C19" s="116" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13"/>
       <c r="B20" s="117"/>
       <c r="C20" s="118" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="13"/>
       <c r="B21" s="117"/>
       <c r="C21" s="119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13"/>
       <c r="B22" s="117"/>
       <c r="C22" s="120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="117"/>
       <c r="C23" s="121" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2667,25 +2668,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="43" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="43" customWidth="1"/>
     <col min="3" max="3" width="46" style="43" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="43" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="43" customWidth="1"/>
     <col min="7" max="7" width="45" style="43" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="43"/>
+    <col min="8" max="8" width="5.1640625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="43" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2696,7 +2697,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="161" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="162"/>
       <c r="D2" s="162"/>
@@ -2769,7 +2770,7 @@
     <row r="9" spans="2:11" s="47" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="31"/>
       <c r="C9" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="26"/>
@@ -2794,7 +2795,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="130"/>
       <c r="K10" s="41"/>
@@ -2814,7 +2815,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" s="130"/>
       <c r="K11" s="41"/>
@@ -2822,50 +2823,41 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="46"/>
       <c r="C12" s="42" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="50">
         <f>'Research data'!G6</f>
-        <v>176.5</v>
+        <v>632.6</v>
       </c>
       <c r="F12" s="42"/>
-      <c r="G12" s="42" t="s">
-        <v>27</v>
+      <c r="G12" s="170" t="s">
+        <v>124</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="157" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J12" s="130"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11">
       <c r="B13" s="46"/>
-      <c r="C13" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="49" t="e">
-        <f>E12*#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="157" t="s">
-        <v>110</v>
-      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="130"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="46"/>
-      <c r="C14" s="91"/>
+      <c r="C14" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="125"/>
       <c r="E14" s="126"/>
       <c r="F14" s="41"/>
@@ -2876,43 +2868,51 @@
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="46"/>
-      <c r="C15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="50">
+        <f>'Research data'!G17</f>
+        <v>617750000</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="157" t="s">
+        <v>107</v>
+      </c>
       <c r="J15" s="130"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="46"/>
       <c r="C16" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="50">
-        <f>'Research data'!G16</f>
-        <v>617750000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="H16" s="42"/>
-      <c r="I16" s="157" t="s">
-        <v>110</v>
+      <c r="I16" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="J16" s="130"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="46"/>
       <c r="C17" s="42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>32</v>
@@ -2922,18 +2922,18 @@
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J17" s="130"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="46"/>
       <c r="C18" s="42" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>32</v>
@@ -2943,259 +2943,238 @@
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18" s="130"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="46"/>
       <c r="C19" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="50">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E19" s="124">
+        <f>'Research data'!G19</f>
+        <v>5206750</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="I19" s="40" t="s">
-        <v>51</v>
+      <c r="I19" s="106" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="130"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="46"/>
       <c r="C20" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="124">
-        <f>'Research data'!G18</f>
-        <v>5206750</v>
+        <v>47</v>
+      </c>
+      <c r="E20" s="49">
+        <f>'Research data'!G21</f>
+        <v>194.15</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="106" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J20" s="130"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="46"/>
       <c r="C21" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="49">
-        <f>'Research data'!G20</f>
-        <v>194.15</v>
+        <v>47</v>
+      </c>
+      <c r="E21" s="127">
+        <v>0</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="42"/>
-      <c r="I21" s="106" t="s">
-        <v>87</v>
+      <c r="I21" s="139" t="s">
+        <v>49</v>
       </c>
       <c r="J21" s="130"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="46"/>
       <c r="C22" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="127">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0.04</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H22" s="42"/>
-      <c r="I22" s="139" t="s">
-        <v>51</v>
+      <c r="I22" s="160" t="s">
+        <v>122</v>
       </c>
       <c r="J22" s="130"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="46"/>
       <c r="C23" s="42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E23" s="50">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F23" s="42"/>
-      <c r="G23" s="42" t="s">
-        <v>22</v>
-      </c>
+      <c r="G23" s="42"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="160" t="s">
-        <v>125</v>
+      <c r="I23" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="J23" s="130"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1">
+    <row r="24" spans="2:10">
       <c r="B24" s="46"/>
-      <c r="C24" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="50">
-        <v>0</v>
-      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="40" t="s">
-        <v>51</v>
-      </c>
+      <c r="I24" s="41"/>
       <c r="J24" s="130"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="46"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="125"/>
       <c r="E25" s="128"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="130"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="46"/>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="C26" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="50">
+        <f>'Research data'!G12</f>
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="142" t="s">
+        <v>88</v>
+      </c>
       <c r="J26" s="130"/>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="46"/>
       <c r="C27" s="42" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="50">
-        <f>'Research data'!G11</f>
-        <v>6.6199999999999995E-2</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="124">
+        <f>'Research data'!G13</f>
+        <v>1</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H27" s="42"/>
-      <c r="I27" s="142" t="s">
-        <v>91</v>
+      <c r="I27" s="157" t="s">
+        <v>107</v>
       </c>
       <c r="J27" s="130"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="46"/>
       <c r="C28" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="124">
-        <f>'Research data'!G12</f>
-        <v>1</v>
+      <c r="E28" s="50">
+        <f>'Research data'!G14</f>
+        <v>25</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="157" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J28" s="130"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="46"/>
       <c r="C29" s="42" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="50">
-        <f>'Research data'!G13</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F29" s="42"/>
-      <c r="G29" s="42" t="s">
-        <v>24</v>
-      </c>
+      <c r="G29" s="42"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="157" t="s">
-        <v>110</v>
+      <c r="I29" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="J29" s="130"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="50">
-        <v>0</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="130"/>
-    </row>
-    <row r="31" spans="2:10" s="151" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
+    <row r="30" spans="2:10" s="151" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3211,28 +3190,28 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="72" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="73" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="73" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="73" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="73" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="72" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="72" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="72" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="72" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="73" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="73" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="73" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="73" customWidth="1"/>
     <col min="14" max="14" width="60" style="72" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="72"/>
+    <col min="15" max="16384" width="10.6640625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1"/>
@@ -3254,7 +3233,7 @@
     <row r="3" spans="1:14" s="32" customFormat="1">
       <c r="B3" s="31"/>
       <c r="C3" s="137" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3262,20 +3241,20 @@
         <v>13</v>
       </c>
       <c r="G3" s="137" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="137"/>
       <c r="I3" s="137" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69"/>
       <c r="L3" s="69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3" s="69"/>
       <c r="N3" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3296,7 +3275,7 @@
     <row r="5" spans="1:14" ht="17" thickBot="1">
       <c r="B5" s="78"/>
       <c r="C5" s="39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -3312,23 +3291,20 @@
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1">
       <c r="B6" s="78"/>
-      <c r="C6" s="81" t="s">
-        <v>28</v>
+      <c r="C6" s="95" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
-        <v>58</v>
+      <c r="F6" s="171" t="s">
+        <v>55</v>
       </c>
       <c r="G6" s="83">
-        <f>I6</f>
-        <v>176.5</v>
+        <f>ROUND(G7/G8,1)</f>
+        <v>632.6</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="83">
-        <f>Notes!E32</f>
-        <v>176.5</v>
-      </c>
+      <c r="I6" s="83"/>
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
       <c r="L6" s="85"/>
@@ -3336,28 +3312,23 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="B7" s="78"/>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="81"/>
       <c r="E7" s="81"/>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
+      <c r="F7" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="G7" s="83">
         <f>I7</f>
-        <v>27.9</v>
+        <v>176.5</v>
       </c>
       <c r="H7" s="84"/>
       <c r="I7" s="83">
-        <f>Notes!E36</f>
-        <v>27.9</v>
+        <f>Notes!E32</f>
+        <v>176.5</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -3366,9 +3337,12 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="B8" s="78"/>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -3378,13 +3352,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="83">
-        <f>I8</f>
-        <v>83.5</v>
+        <f>I8/100</f>
+        <v>0.27899999999999997</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="83">
-        <f>Notes!E37</f>
-        <v>83.5</v>
+        <f>Notes!E36</f>
+        <v>27.9</v>
       </c>
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
@@ -3392,185 +3366,187 @@
       <c r="M8" s="85"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="17" thickBot="1">
       <c r="B9" s="78"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="83">
+        <f>I9/100</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H9" s="84"/>
+      <c r="I9" s="83">
+        <f>Notes!E37</f>
+        <v>83.5</v>
+      </c>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="85"/>
       <c r="M9" s="85"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1">
+    <row r="10" spans="1:14">
       <c r="B10" s="78"/>
-      <c r="C10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="85"/>
       <c r="M10" s="85"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1">
       <c r="B11" s="78"/>
-      <c r="C11" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="149">
-        <f>ROUND(L11,4)</f>
-        <v>6.6199999999999995E-2</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="141">
-        <f>Notes!E15*Notes!E16*G6/Notes!E13/1000000</f>
-        <v>6.6187499999999996E-2</v>
-      </c>
+      <c r="C11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="85"/>
-      <c r="N11" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1">
       <c r="B12" s="78"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="149">
+        <f>ROUND(L12,4)</f>
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="141">
+        <f>Notes!E15*Notes!E16*G7/Notes!E13/1000000</f>
+        <v>6.6187499999999996E-2</v>
+      </c>
+      <c r="M12" s="85"/>
+      <c r="N12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1">
+      <c r="B13" s="78"/>
+      <c r="C13" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="82" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G13" s="93">
         <f>ROUND(1,1)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1">
-      <c r="B13" s="78"/>
-      <c r="C13" s="95" t="s">
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1">
+      <c r="B14" s="78"/>
+      <c r="C14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="82" t="s">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="83">
-        <f>I13</f>
+      <c r="G14" s="83">
+        <f>I14</f>
         <v>25</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="83">
+      <c r="H14" s="88"/>
+      <c r="I14" s="83">
         <f>Notes!E38</f>
         <v>25</v>
       </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="78"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
       <c r="J14" s="89"/>
       <c r="K14" s="89"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="17" thickBot="1">
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="78"/>
-      <c r="C15" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="85"/>
       <c r="M15" s="85"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="17" thickBot="1">
       <c r="B16" s="78"/>
-      <c r="C16" s="131" t="s">
-        <v>82</v>
+      <c r="C16" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="93">
-        <f>ROUND(G17*G6*1000,2)</f>
-        <v>617750000</v>
-      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
-      <c r="N16" s="12"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14" ht="17" thickBot="1">
       <c r="B17" s="78"/>
-      <c r="C17" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="132" t="s">
+      <c r="C17" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="83">
-        <f>I17</f>
-        <v>3500</v>
-      </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="100">
-        <f>Notes!E35</f>
-        <v>3500</v>
-      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="93">
+        <f>ROUND(G18*G7*1000,2)</f>
+        <v>617750000</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="88"/>
       <c r="K17" s="88"/>
       <c r="L17" s="85"/>
@@ -3579,45 +3555,45 @@
     </row>
     <row r="18" spans="2:14" ht="17" thickBot="1">
       <c r="B18" s="78"/>
-      <c r="C18" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="97">
-        <f>ROUND(G19*G6*1000,2)</f>
-        <v>5206750</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="C18" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="83">
+        <f>I18</f>
+        <v>3500</v>
+      </c>
+      <c r="H18" s="88"/>
+      <c r="I18" s="100">
+        <f>Notes!E35</f>
+        <v>3500</v>
+      </c>
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="88"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:14" ht="17" thickBot="1">
       <c r="B19" s="78"/>
-      <c r="C19" s="131" t="s">
-        <v>84</v>
+      <c r="C19" s="140" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="133" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="83">
-        <f>I19</f>
-        <v>29.5</v>
+      <c r="F19" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="97">
+        <f>ROUND(G20*G7*1000,2)</f>
+        <v>5206750</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="I19" s="100">
-        <f>Notes!E41</f>
-        <v>29.5</v>
-      </c>
+      <c r="I19" s="24"/>
       <c r="J19" s="88"/>
       <c r="K19" s="88"/>
       <c r="L19" s="94"/>
@@ -3626,20 +3602,23 @@
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1">
       <c r="B20" s="78"/>
-      <c r="C20" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="93">
-        <f>ROUND(G21*G6,2)</f>
-        <v>194.15</v>
-      </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
+      <c r="C20" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="83">
+        <f>I20</f>
+        <v>29.5</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="100">
+        <f>Notes!E41</f>
+        <v>29.5</v>
+      </c>
       <c r="J20" s="88"/>
       <c r="K20" s="88"/>
       <c r="L20" s="94"/>
@@ -3648,43 +3627,65 @@
     </row>
     <row r="21" spans="2:14" ht="17" thickBot="1">
       <c r="B21" s="78"/>
-      <c r="C21" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="83">
-        <f>I21</f>
+      <c r="C21" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="93">
+        <f>ROUND(G22*G7,2)</f>
+        <v>194.15</v>
+      </c>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" ht="17" thickBot="1">
+      <c r="B22" s="78"/>
+      <c r="C22" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="83">
+        <f>I22</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="100">
+      <c r="H22" s="88"/>
+      <c r="I22" s="100">
         <f>Notes!E43</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="2:14" ht="17" thickBot="1">
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="104"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="2:14" ht="17" thickBot="1">
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3703,18 +3704,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="51" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="51" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="77.42578125" style="51" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="51"/>
+    <col min="1" max="1" width="3.33203125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="55" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="51" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="52" customWidth="1"/>
+    <col min="11" max="11" width="77.5" style="51" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="17" thickBot="1"/>
@@ -3768,13 +3769,13 @@
         <v>30</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K5" s="60" t="s">
         <v>15</v>
@@ -3838,22 +3839,22 @@
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
       <c r="I11" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J11" s="68"/>
       <c r="K11" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="58"/>
@@ -3877,19 +3878,19 @@
     </row>
     <row r="14" spans="3:11" ht="17">
       <c r="E14" s="51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G14" s="51">
         <v>2018</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J14" s="158" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="3:11">
@@ -3900,12 +3901,12 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -3920,12 +3921,12 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -3949,15 +3950,15 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="143" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="147" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="143" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="143" customWidth="1"/>
-    <col min="6" max="12" width="10.7109375" style="143"/>
-    <col min="13" max="13" width="33.42578125" style="143" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="143"/>
+    <col min="1" max="1" width="3.5" style="143" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="147" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="143" customWidth="1"/>
+    <col min="4" max="5" width="18.5" style="143" customWidth="1"/>
+    <col min="6" max="12" width="10.6640625" style="143"/>
+    <col min="13" max="13" width="33.5" style="143" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="143"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="17" thickBot="1"/>
@@ -3979,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -4019,7 +4020,7 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="145" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
@@ -4103,7 +4104,7 @@
         <v>0.04</v>
       </c>
       <c r="F13" s="150" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="145"/>
       <c r="H13" s="145"/>
@@ -4131,7 +4132,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="145"/>
       <c r="H15" s="145"/>
@@ -4147,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="150" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="145"/>
@@ -4315,23 +4316,23 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="155" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="159" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="3:13">
       <c r="D32" s="155" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" s="143">
         <v>176.5</v>
       </c>
       <c r="F32" s="156" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -4339,30 +4340,30 @@
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="150" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E34" s="143">
         <v>3.5</v>
       </c>
       <c r="F34" s="155" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="4:6">
       <c r="D35" s="150" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E35" s="143">
         <f>E34*1000000/1000</f>
         <v>3500</v>
       </c>
       <c r="F35" s="156" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="4:6">
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" s="143">
         <v>27.9</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="37" spans="4:6">
       <c r="D37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E37" s="143">
         <v>83.5</v>
@@ -4384,7 +4385,7 @@
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="155" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" s="143">
         <v>25</v>
@@ -4400,25 +4401,25 @@
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="150" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E40" s="143">
         <v>29500</v>
       </c>
       <c r="F40" s="155" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="D41" s="150" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" s="143">
         <f>E40/1000</f>
         <v>29.5</v>
       </c>
       <c r="F41" s="156" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="4:6">
@@ -4426,13 +4427,13 @@
     </row>
     <row r="43" spans="4:6">
       <c r="D43" s="150" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E43" s="143">
         <v>1.1000000000000001</v>
       </c>
       <c r="F43" s="156" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
